--- a/cu/cpu1/200111132-吴桐-双表.xlsx
+++ b/cu/cpu1/200111132-吴桐-双表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="数据通路表(含控制信号)"/>
@@ -353,6 +353,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -361,12 +367,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -467,10 +467,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -478,28 +481,25 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
@@ -511,31 +511,34 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
@@ -848,16 +851,16 @@
   </sheetPr>
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="14" width="3.5764285714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="25" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="25" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="26" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="26" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="14" width="7.576428571428571" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="14" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="25" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="26" width="11.576428571428572" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="14" width="16.14785714285714" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="14" width="16.005" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="14" width="15.576428571428572" customWidth="1" bestFit="1"/>
@@ -873,11 +876,11 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="16"/>
+      <c r="F1" s="18"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -892,1256 +895,1256 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="17" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="7" t="s">
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="7"/>
+      <c r="Q2" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="M3" s="18"/>
-      <c r="N3" s="7" t="s">
+      <c r="M3" s="20"/>
+      <c r="N3" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7" t="s">
+      <c r="O3" s="8"/>
+      <c r="P3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="Q3" s="7"/>
+      <c r="Q3" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7" t="s">
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7" t="s">
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7" t="s">
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7" t="s">
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7" t="s">
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7" t="s">
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1"/>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7" t="s">
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7" t="s">
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1"/>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7" t="s">
+      <c r="H13" s="8"/>
+      <c r="I13" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7" t="s">
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7" t="s">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7" t="s">
+      <c r="H14" s="8"/>
+      <c r="I14" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7" t="s">
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7" t="s">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7" t="s">
+      <c r="H15" s="8"/>
+      <c r="I15" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7" t="s">
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7" t="s">
+      <c r="H16" s="8"/>
+      <c r="I16" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7" t="s">
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="O16" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7" t="s">
+      <c r="H17" s="8"/>
+      <c r="I17" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7" t="s">
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="O17" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1"/>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7" t="s">
+      <c r="E18" s="8"/>
+      <c r="F18" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7" t="s">
+      <c r="H18" s="8"/>
+      <c r="I18" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7" t="s">
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="O18" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1"/>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7" t="s">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7" t="s">
+      <c r="H19" s="8"/>
+      <c r="I19" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7" t="s">
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="O19" s="7" t="s">
+      <c r="O19" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1"/>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7" t="s">
+      <c r="E20" s="8"/>
+      <c r="F20" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7" t="s">
+      <c r="H20" s="8"/>
+      <c r="I20" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7" t="s">
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="O20" s="7" t="s">
+      <c r="O20" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="P20" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="Q20" s="7"/>
+      <c r="Q20" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="23.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7" t="s">
+      <c r="E21" s="8"/>
+      <c r="F21" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7" t="s">
+      <c r="H21" s="8"/>
+      <c r="I21" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="J21" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="K21" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7" t="s">
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="O21" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7" t="s">
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7" t="s">
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7" t="s">
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="O22" s="7" t="s">
+      <c r="O22" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="P22" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="Q22" s="7" t="s">
+      <c r="Q22" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7" t="s">
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="L23" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="M23" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="N23" s="7" t="s">
+      <c r="N23" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="O23" s="7" t="s">
+      <c r="O23" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7" t="s">
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="L24" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="M24" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="N24" s="7" t="s">
+      <c r="N24" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="O24" s="7" t="s">
+      <c r="O24" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1"/>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7" t="s">
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="L25" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="M25" s="7" t="s">
+      <c r="M25" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="N25" s="7" t="s">
+      <c r="N25" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="O25" s="7" t="s">
+      <c r="O25" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1"/>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7" t="s">
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="L26" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="M26" s="7" t="s">
+      <c r="M26" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="N26" s="7" t="s">
+      <c r="N26" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="O26" s="7" t="s">
+      <c r="O26" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7" t="s">
+      <c r="E27" s="8"/>
+      <c r="F27" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7" t="s">
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="K27" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7" t="s">
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7" t="s">
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7" t="s">
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="O28" s="7" t="s">
+      <c r="O28" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="34">
       <c r="A29" s="1"/>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J29" s="21" t="s">
+      <c r="J29" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="K29" s="21" t="s">
+      <c r="K29" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="7" t="s">
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="O29" s="21" t="s">
+      <c r="O29" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="P29" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="Q29" s="7" t="s">
+      <c r="Q29" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="7" t="s">
+      <c r="E30" s="21"/>
+      <c r="F30" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="I30" s="17" t="s">
+      <c r="I30" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J30" s="19"/>
-      <c r="K30" s="7" t="s">
+      <c r="J30" s="21"/>
+      <c r="K30" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17" t="s">
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="O30" s="19"/>
-      <c r="P30" s="17" t="s">
+      <c r="O30" s="21"/>
+      <c r="P30" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="Q30" s="19"/>
+      <c r="Q30" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="7" t="s">
+      <c r="E31" s="21"/>
+      <c r="F31" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="J31" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="K31" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7" t="s">
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O31" s="7" t="s">
+      <c r="O31" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="P31" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="Q31" s="7" t="s">
+      <c r="Q31" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="7" t="s">
+      <c r="E32" s="21"/>
+      <c r="F32" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="J32" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="K32" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7" t="s">
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="O32" s="7" t="s">
+      <c r="O32" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="P32" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="Q32" s="7" t="s">
+      <c r="Q32" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="16"/>
+      <c r="F33" s="18"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2156,11 +2159,11 @@
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="16"/>
+      <c r="F34" s="18"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2175,11 +2178,11 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="24"/>
+      <c r="F35" s="18"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2221,865 +2224,865 @@
   </sheetPr>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="14" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="7.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="6.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="7.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="16" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="16" width="6.576428571428571" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="14" width="7.719285714285714" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="14" width="8.576428571428572" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="14" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="15" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="15" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="15" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="17" width="7.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="17" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="17" width="9.005" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="14" width="8.005" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="14" width="9.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="3"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
       <c r="A2" s="1"/>
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
       <c r="A3" s="1"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
       <c r="A4" s="1"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
       <c r="A5" s="1"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
       <c r="A6" s="1"/>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75">
       <c r="A7" s="1"/>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75">
       <c r="A8" s="1"/>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75">
       <c r="A9" s="1"/>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75">
       <c r="A10" s="1"/>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21.75">
       <c r="A11" s="1"/>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0</v>
-      </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21.75">
       <c r="A12" s="1"/>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="6">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6">
-        <v>1</v>
-      </c>
-      <c r="J12" s="6">
-        <v>0</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21.75">
       <c r="A13" s="1"/>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="6">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6">
-        <v>1</v>
-      </c>
-      <c r="J13" s="6">
-        <v>0</v>
-      </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21.75">
       <c r="A14" s="1"/>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
-      <c r="I14" s="6">
-        <v>1</v>
-      </c>
-      <c r="J14" s="6">
-        <v>0</v>
-      </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21.75">
       <c r="A15" s="1"/>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="6">
-        <v>0</v>
-      </c>
-      <c r="I15" s="6">
-        <v>1</v>
-      </c>
-      <c r="J15" s="6">
-        <v>0</v>
-      </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21.75">
       <c r="A16" s="1"/>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6">
-        <v>1</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6">
-        <v>1</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0</v>
-      </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21.75">
       <c r="A17" s="1"/>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6">
-        <v>1</v>
-      </c>
-      <c r="J17" s="6">
-        <v>0</v>
-      </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21.75">
       <c r="A18" s="1"/>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="6">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="6">
-        <v>0</v>
-      </c>
-      <c r="I18" s="6">
-        <v>1</v>
-      </c>
-      <c r="J18" s="6">
-        <v>0</v>
-      </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21.75">
       <c r="A19" s="1"/>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="6">
-        <v>0</v>
-      </c>
-      <c r="I19" s="6">
-        <v>1</v>
-      </c>
-      <c r="J19" s="6">
-        <v>0</v>
-      </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21.75">
       <c r="A20" s="1"/>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="6">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="6">
-        <v>0</v>
-      </c>
-      <c r="I20" s="6">
-        <v>1</v>
-      </c>
-      <c r="J20" s="6">
-        <v>0</v>
-      </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21.75">
       <c r="A21" s="1"/>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="6">
-        <v>0</v>
-      </c>
-      <c r="I21" s="6">
-        <v>1</v>
-      </c>
-      <c r="J21" s="6">
-        <v>1</v>
-      </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1</v>
+      </c>
+      <c r="J21" s="7">
+        <v>1</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="21.75">
       <c r="A22" s="1"/>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="6">
-        <v>1</v>
-      </c>
-      <c r="I22" s="6">
-        <v>1</v>
-      </c>
-      <c r="J22" s="6">
-        <v>0</v>
-      </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="21.75">
       <c r="A23" s="1"/>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="6">
-        <v>0</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="6">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6">
-        <v>1</v>
-      </c>
-      <c r="J23" s="6">
-        <v>0</v>
-      </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0</v>
+      </c>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="21.75">
       <c r="A24" s="1"/>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="6">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="6">
-        <v>1</v>
-      </c>
-      <c r="I24" s="6">
-        <v>1</v>
-      </c>
-      <c r="J24" s="6">
-        <v>0</v>
-      </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
+      <c r="H24" s="7">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1</v>
+      </c>
+      <c r="J24" s="7">
+        <v>0</v>
+      </c>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="21.75">
       <c r="A25" s="1"/>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="6">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="6">
-        <v>1</v>
-      </c>
-      <c r="I25" s="6">
-        <v>1</v>
-      </c>
-      <c r="J25" s="6">
-        <v>0</v>
-      </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0</v>
+      </c>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="21.75">
       <c r="A26" s="1"/>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="6">
-        <v>0</v>
-      </c>
-      <c r="D26" s="6">
-        <v>1</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="6">
-        <v>0</v>
-      </c>
-      <c r="I26" s="6">
-        <v>1</v>
-      </c>
-      <c r="J26" s="6">
-        <v>0</v>
-      </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0</v>
+      </c>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="10">
-        <v>1</v>
-      </c>
-      <c r="D27" s="6">
-        <v>1</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="C27" s="11">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H27" s="6">
-        <v>1</v>
-      </c>
-      <c r="I27" s="6">
-        <v>1</v>
-      </c>
-      <c r="J27" s="6">
-        <v>0</v>
-      </c>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
+      <c r="H27" s="7">
+        <v>1</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1</v>
+      </c>
+      <c r="J27" s="7">
+        <v>0</v>
+      </c>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="3"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="3"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="4"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
@@ -3093,9 +3096,9 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>

--- a/cu/cpu1/200111132-吴桐-双表.xlsx
+++ b/cu/cpu1/200111132-吴桐-双表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="数据通路表(含控制信号)"/>
@@ -353,13 +353,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -467,19 +467,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -487,10 +484,10 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
@@ -518,24 +515,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
@@ -851,36 +848,36 @@
   </sheetPr>
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="3.5764285714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="26" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="26" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="26" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="14" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="14" width="27.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="14" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="14" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="14" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="14" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="14" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="14" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="3.5764285714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="25" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="25" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="25" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="13" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="13" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="13" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="13" width="27.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="13" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="13" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="13" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="13" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="13" width="16.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="18"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -895,1256 +892,1256 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="19" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="8" t="s">
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="8"/>
+      <c r="Q2" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="8" t="s">
+      <c r="M3" s="19"/>
+      <c r="N3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8" t="s">
+      <c r="O3" s="7"/>
+      <c r="P3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="Q3" s="8"/>
+      <c r="Q3" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1"/>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8" t="s">
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8" t="s">
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8" t="s">
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="O7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8" t="s">
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8" t="s">
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="O9" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8" t="s">
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1"/>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8" t="s">
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="O11" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8" t="s">
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="O12" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1"/>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8" t="s">
+      <c r="H13" s="7"/>
+      <c r="I13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8" t="s">
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="O13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8" t="s">
+      <c r="H14" s="7"/>
+      <c r="I14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8" t="s">
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="O14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8" t="s">
+      <c r="H15" s="7"/>
+      <c r="I15" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8" t="s">
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="O15" s="8" t="s">
+      <c r="O15" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8" t="s">
+      <c r="H16" s="7"/>
+      <c r="I16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8" t="s">
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="O16" s="8" t="s">
+      <c r="O16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8" t="s">
+      <c r="H17" s="7"/>
+      <c r="I17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8" t="s">
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="O17" s="8" t="s">
+      <c r="O17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1"/>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8" t="s">
+      <c r="E18" s="7"/>
+      <c r="F18" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8" t="s">
+      <c r="H18" s="7"/>
+      <c r="I18" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8" t="s">
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="O18" s="8" t="s">
+      <c r="O18" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1"/>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8" t="s">
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8" t="s">
+      <c r="H19" s="7"/>
+      <c r="I19" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8" t="s">
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="O19" s="8" t="s">
+      <c r="O19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1"/>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8" t="s">
+      <c r="H20" s="7"/>
+      <c r="I20" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8" t="s">
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="O20" s="8" t="s">
+      <c r="O20" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P20" s="8" t="s">
+      <c r="P20" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="Q20" s="8"/>
+      <c r="Q20" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="23.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8" t="s">
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8" t="s">
+      <c r="H21" s="7"/>
+      <c r="I21" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J21" s="22" t="s">
+      <c r="J21" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8" t="s">
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="O21" s="8" t="s">
+      <c r="O21" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8" t="s">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8" t="s">
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8" t="s">
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="O22" s="8" t="s">
+      <c r="O22" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P22" s="8" t="s">
+      <c r="P22" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="Q22" s="8" t="s">
+      <c r="Q22" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8" t="s">
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="L23" s="8" t="s">
+      <c r="L23" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="M23" s="8" t="s">
+      <c r="M23" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="N23" s="8" t="s">
+      <c r="N23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O23" s="8" t="s">
+      <c r="O23" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8" t="s">
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="L24" s="8" t="s">
+      <c r="L24" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="M24" s="8" t="s">
+      <c r="M24" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="N24" s="8" t="s">
+      <c r="N24" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O24" s="8" t="s">
+      <c r="O24" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1"/>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8" t="s">
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="L25" s="8" t="s">
+      <c r="L25" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="M25" s="8" t="s">
+      <c r="M25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="N25" s="8" t="s">
+      <c r="N25" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O25" s="8" t="s">
+      <c r="O25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1"/>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8" t="s">
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="L26" s="8" t="s">
+      <c r="L26" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="M26" s="8" t="s">
+      <c r="M26" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="N26" s="8" t="s">
+      <c r="N26" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O26" s="8" t="s">
+      <c r="O26" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
+      <c r="E27" s="7"/>
+      <c r="F27" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8" t="s">
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="K27" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8" t="s">
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8" t="s">
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K28" s="8" t="s">
+      <c r="K28" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8" t="s">
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O28" s="8" t="s">
+      <c r="O28" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="34">
       <c r="A29" s="1"/>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="I29" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J29" s="23" t="s">
+      <c r="J29" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="K29" s="23" t="s">
+      <c r="K29" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="8" t="s">
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="O29" s="23" t="s">
+      <c r="O29" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="P29" s="8" t="s">
+      <c r="P29" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="Q29" s="8" t="s">
+      <c r="Q29" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="8" t="s">
+      <c r="E30" s="20"/>
+      <c r="F30" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="I30" s="19" t="s">
+      <c r="I30" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J30" s="21"/>
-      <c r="K30" s="8" t="s">
+      <c r="J30" s="20"/>
+      <c r="K30" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19" t="s">
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="O30" s="21"/>
-      <c r="P30" s="19" t="s">
+      <c r="O30" s="20"/>
+      <c r="P30" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="Q30" s="21"/>
+      <c r="Q30" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="8" t="s">
+      <c r="E31" s="20"/>
+      <c r="F31" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="K31" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8" t="s">
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O31" s="8" t="s">
+      <c r="O31" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="P31" s="8" t="s">
+      <c r="P31" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="Q31" s="8" t="s">
+      <c r="Q31" s="7" t="s">
         <v>103</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="8" t="s">
+      <c r="E32" s="20"/>
+      <c r="F32" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="K32" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8" t="s">
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="O32" s="8" t="s">
+      <c r="O32" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P32" s="8" t="s">
+      <c r="P32" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="Q32" s="8" t="s">
+      <c r="Q32" s="7" t="s">
         <v>103</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="18"/>
+      <c r="F33" s="17"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2159,11 +2156,11 @@
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="18"/>
+      <c r="F34" s="17"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2178,11 +2175,11 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="18"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="18"/>
+      <c r="F35" s="17"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2224,25 +2221,25 @@
   </sheetPr>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="7.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="16" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="17" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="17" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="17" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="14" width="8.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="14" width="9.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="3.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="7.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="6.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="7.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="16" width="7.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="16" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="16" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="13" width="8.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="13" width="9.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2250,7 +2247,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="5"/>
+      <c r="H1" s="4"/>
       <c r="I1" s="3"/>
       <c r="J1" s="4"/>
       <c r="K1" s="1"/>
@@ -2258,819 +2255,819 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
       <c r="A2" s="1"/>
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
       <c r="A3" s="1"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
       <c r="A4" s="1"/>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
       <c r="A5" s="1"/>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
       <c r="A6" s="1"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75">
       <c r="A7" s="1"/>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75">
       <c r="A8" s="1"/>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75">
       <c r="A9" s="1"/>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75">
       <c r="A10" s="1"/>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21.75">
       <c r="A11" s="1"/>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21.75">
       <c r="A12" s="1"/>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1</v>
-      </c>
-      <c r="J12" s="7">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21.75">
       <c r="A13" s="1"/>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1</v>
-      </c>
-      <c r="J13" s="7">
-        <v>0</v>
-      </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21.75">
       <c r="A14" s="1"/>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8" t="s">
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1</v>
-      </c>
-      <c r="J14" s="7">
-        <v>0</v>
-      </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21.75">
       <c r="A15" s="1"/>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>1</v>
-      </c>
-      <c r="J15" s="7">
-        <v>0</v>
-      </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21.75">
       <c r="A16" s="1"/>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1</v>
-      </c>
-      <c r="J16" s="7">
-        <v>0</v>
-      </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21.75">
       <c r="A17" s="1"/>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1</v>
-      </c>
-      <c r="J17" s="7">
-        <v>0</v>
-      </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21.75">
       <c r="A18" s="1"/>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="7">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1</v>
-      </c>
-      <c r="J18" s="7">
-        <v>0</v>
-      </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21.75">
       <c r="A19" s="1"/>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1</v>
-      </c>
-      <c r="J19" s="7">
-        <v>0</v>
-      </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <v>1</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21.75">
       <c r="A20" s="1"/>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="7">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1</v>
-      </c>
-      <c r="J20" s="7">
-        <v>0</v>
-      </c>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21.75">
       <c r="A21" s="1"/>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1</v>
-      </c>
-      <c r="J21" s="7">
-        <v>1</v>
-      </c>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6">
+        <v>1</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="21.75">
       <c r="A22" s="1"/>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
-      <c r="E22" s="8" t="s">
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="7">
-        <v>1</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1</v>
-      </c>
-      <c r="J22" s="7">
-        <v>0</v>
-      </c>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
+      <c r="H22" s="6">
+        <v>1</v>
+      </c>
+      <c r="I22" s="6">
+        <v>1</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="21.75">
       <c r="A23" s="1"/>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="7">
-        <v>0</v>
-      </c>
-      <c r="E23" s="8" t="s">
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="7">
-        <v>1</v>
-      </c>
-      <c r="I23" s="7">
-        <v>1</v>
-      </c>
-      <c r="J23" s="7">
-        <v>0</v>
-      </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
+      <c r="H23" s="6">
+        <v>1</v>
+      </c>
+      <c r="I23" s="6">
+        <v>1</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="21.75">
       <c r="A24" s="1"/>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="8" t="s">
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="7">
-        <v>1</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1</v>
-      </c>
-      <c r="J24" s="7">
-        <v>0</v>
-      </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
+      <c r="H24" s="6">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6">
+        <v>1</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="21.75">
       <c r="A25" s="1"/>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="8" t="s">
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1</v>
-      </c>
-      <c r="J25" s="7">
-        <v>0</v>
-      </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
+      <c r="H25" s="6">
+        <v>1</v>
+      </c>
+      <c r="I25" s="6">
+        <v>1</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="21.75">
       <c r="A26" s="1"/>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1</v>
-      </c>
-      <c r="E26" s="8" t="s">
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1</v>
-      </c>
-      <c r="J26" s="7">
-        <v>0</v>
-      </c>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
+        <v>1</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="11">
-        <v>1</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1</v>
-      </c>
-      <c r="E27" s="8" t="s">
+      <c r="C27" s="10">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H27" s="7">
-        <v>1</v>
-      </c>
-      <c r="I27" s="7">
-        <v>1</v>
-      </c>
-      <c r="J27" s="7">
-        <v>0</v>
-      </c>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
+      <c r="H27" s="6">
+        <v>1</v>
+      </c>
+      <c r="I27" s="6">
+        <v>1</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0</v>
+      </c>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
       <c r="A28" s="1"/>
@@ -3080,7 +3077,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="5"/>
+      <c r="H28" s="4"/>
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
       <c r="K28" s="1"/>
@@ -3088,17 +3085,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
